--- a/5. HUNG WORKSPACE/ProposalList/ProposalList.xlsx
+++ b/5. HUNG WORKSPACE/ProposalList/ProposalList.xlsx
@@ -5,27 +5,38 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Arch\home\kratos\code\Capstone\Temporary\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Arch\home\kratos\code\Capstone\robot-vision-system\5. HUNG WORKSPACE\ProposalList\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF030F52-F271-40A0-9360-DEDB3558510B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2F783BA-D2B6-4C58-A1CF-6D54B6E06A71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="28">
   <si>
     <t>Tên hàng / Nội dung đề xuất</t>
   </si>
@@ -71,9 +82,6 @@
   </si>
   <si>
     <t>Switch TP-Link Gigabit 8 Ports 10/100/1000Mbps TL-SG108</t>
-  </si>
-  <si>
-    <t>chiếc</t>
   </si>
   <si>
     <t>Chưa qua VAT</t>
@@ -94,6 +102,34 @@
 196 Nguyễn Đình Chiểu, Phường Võ Thị Sáu, Quận 3, TP.HCM
 344 Huỳnh Tấn Phát, Phường Bình Thuận, Quận 7, TP.HCM
 Điện thoại: (028) 73073776</t>
+  </si>
+  <si>
+    <t>Dây kết nối HDMI</t>
+  </si>
+  <si>
+    <t>Kết nối màn hình với máy tính nhúng</t>
+  </si>
+  <si>
+    <t>Dây USB loại A</t>
+  </si>
+  <si>
+    <t>Dây RJ45</t>
+  </si>
+  <si>
+    <t>Kết nối Ethernet từ CFD đến máy tính nhúng</t>
+  </si>
+  <si>
+    <t>dây</t>
+  </si>
+  <si>
+    <t>cái</t>
+  </si>
+  <si>
+    <t>Kết nối bàn phím, chuột với máy tính nhúng</t>
+  </si>
+  <si>
+    <t>LAZADA 
+Hotline: 19006509</t>
   </si>
 </sst>
 </file>
@@ -429,16 +465,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="49.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="49.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="57.33203125" customWidth="1"/>
     <col min="3" max="3" width="8.109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.33203125" bestFit="1" customWidth="1"/>
@@ -500,7 +536,7 @@
         <v>12</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I2" t="s">
         <v>13</v>
@@ -511,13 +547,13 @@
         <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E3" s="3">
         <v>500000</v>
@@ -529,16 +565,97 @@
         <v>12</v>
       </c>
       <c r="H3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>19</v>
       </c>
-      <c r="I3" t="s">
-        <v>16</v>
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="3">
+        <v>15900</v>
+      </c>
+      <c r="F4" s="3">
+        <v>15900</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="3">
+        <v>15000</v>
+      </c>
+      <c r="F5" s="3">
+        <v>30000</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="3">
+        <v>35000</v>
+      </c>
+      <c r="F6" s="3">
+        <v>70000</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="G2" r:id="rId1" xr:uid="{FB2668D1-791A-4287-87A1-E71744C9EE13}"/>
     <hyperlink ref="G3" r:id="rId2" xr:uid="{79C9D8E3-C83B-4E58-AB5D-B4AC572DCD32}"/>
+    <hyperlink ref="G4" r:id="rId3" xr:uid="{D3D84437-7D5B-4341-AE81-9A70F9EF1828}"/>
+    <hyperlink ref="G6" r:id="rId4" xr:uid="{66E5AFAA-8158-4530-9F9C-E4C261F4F7B0}"/>
+    <hyperlink ref="G5" r:id="rId5" xr:uid="{92982B26-D6FC-4625-B721-ED24CDA4B64E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/5. HUNG WORKSPACE/ProposalList/ProposalList.xlsx
+++ b/5. HUNG WORKSPACE/ProposalList/ProposalList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Arch\home\kratos\code\Capstone\robot-vision-system\5. HUNG WORKSPACE\ProposalList\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2F783BA-D2B6-4C58-A1CF-6D54B6E06A71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38A314C9-46E4-4524-990C-A865EA941C7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="27">
   <si>
     <t>Tên hàng / Nội dung đề xuất</t>
   </si>
@@ -78,23 +78,10 @@
     <t>Link</t>
   </si>
   <si>
-    <t>Ram 8GB + SSD 250GB</t>
-  </si>
-  <si>
     <t>Switch TP-Link Gigabit 8 Ports 10/100/1000Mbps TL-SG108</t>
   </si>
   <si>
-    <t>Chưa qua VAT</t>
-  </si>
-  <si>
     <t>Chuyển đổi các kết nối giữa các thiết bị ngoại vi</t>
-  </si>
-  <si>
-    <t>MemoryZone
-Trụ sở chính: 4C Đồng Xoài, Phường 13, Quận Tân Bình, TP. Hồ Chí Minh.
-Giờ làm việc: 8h - 21h từ thứ 2 đến CN
-Điện thoại: (028) 7301 3878 - DĐ: 0909 305 350
-Website: http://memoryzone.com.vn</t>
   </si>
   <si>
     <t>Công ty TNHH Siêu Siêu Nhỏ
@@ -130,6 +117,14 @@
   <si>
     <t>LAZADA 
 Hotline: 19006509</t>
+  </si>
+  <si>
+    <t>Ram 8GB + SSD 250GB
+Giá chưa VAT
+Giá chưa tính Ram và SSD kèm theo</t>
+  </si>
+  <si>
+    <t>Giá chưa VAT</t>
   </si>
 </sst>
 </file>
@@ -468,7 +463,7 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -481,7 +476,7 @@
     <col min="6" max="6" width="14.88671875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.5546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="60.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
@@ -527,33 +522,33 @@
         <v>11</v>
       </c>
       <c r="E2" s="3">
-        <v>4400000</v>
+        <v>3440000</v>
       </c>
       <c r="F2" s="3">
-        <v>4400000</v>
+        <v>3440000</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>12</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I2" t="s">
-        <v>13</v>
+        <v>15</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
         <v>14</v>
-      </c>
-      <c r="B3" t="s">
-        <v>16</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E3" s="3">
         <v>500000</v>
@@ -565,24 +560,24 @@
         <v>12</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I3" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E4" s="3">
         <v>15900</v>
@@ -594,21 +589,21 @@
         <v>12</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C5">
         <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E5" s="3">
         <v>15000</v>
@@ -620,21 +615,21 @@
         <v>12</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C6">
         <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E6" s="3">
         <v>35000</v>
@@ -646,16 +641,16 @@
         <v>12</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1" xr:uid="{FB2668D1-791A-4287-87A1-E71744C9EE13}"/>
-    <hyperlink ref="G3" r:id="rId2" xr:uid="{79C9D8E3-C83B-4E58-AB5D-B4AC572DCD32}"/>
-    <hyperlink ref="G4" r:id="rId3" xr:uid="{D3D84437-7D5B-4341-AE81-9A70F9EF1828}"/>
-    <hyperlink ref="G6" r:id="rId4" xr:uid="{66E5AFAA-8158-4530-9F9C-E4C261F4F7B0}"/>
-    <hyperlink ref="G5" r:id="rId5" xr:uid="{92982B26-D6FC-4625-B721-ED24CDA4B64E}"/>
+    <hyperlink ref="G3" r:id="rId1" xr:uid="{79C9D8E3-C83B-4E58-AB5D-B4AC572DCD32}"/>
+    <hyperlink ref="G4" r:id="rId2" xr:uid="{D3D84437-7D5B-4341-AE81-9A70F9EF1828}"/>
+    <hyperlink ref="G6" r:id="rId3" xr:uid="{66E5AFAA-8158-4530-9F9C-E4C261F4F7B0}"/>
+    <hyperlink ref="G5" r:id="rId4" xr:uid="{92982B26-D6FC-4625-B721-ED24CDA4B64E}"/>
+    <hyperlink ref="G2" r:id="rId5" location="detail" xr:uid="{AADC95E8-515B-4322-A1D8-0BDA2CD8B13C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
